--- a/data/case1/15/V1_13.xlsx
+++ b/data/case1/15/V1_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999761853675</v>
+        <v>0.99999999817531449</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99885236421862511</v>
+        <v>0.99822233349817202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99665499473210706</v>
+        <v>0.99227080263766787</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1.0009027185508708</v>
+        <v>0.99441002924156452</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.99204631612584238</v>
+        <v>0.98336561852589133</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.97234969980590247</v>
+        <v>0.95843640201629809</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.97034429170109049</v>
+        <v>0.95345995971104802</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.96769008291281611</v>
+        <v>0.94587886485025763</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.96730074662790133</v>
+        <v>0.93721240015165153</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.96786303531762208</v>
+        <v>0.92945457603075743</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.9680292946345197</v>
+        <v>0.92827547268278288</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.96860269957425604</v>
+        <v>0.9257687968476922</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.9573192415002002</v>
+        <v>0.91644986095550329</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.95315258980175677</v>
+        <v>0.91339104775929836</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.95056142722260062</v>
+        <v>0.91166807040383646</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.94805517102329051</v>
+        <v>0.90916152964660812</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.94434744413497373</v>
+        <v>0.90545351735652657</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.94323852106483264</v>
+        <v>0.90434457682790159</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99775883502884855</v>
+        <v>0.99716906444227704</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.99018534753410292</v>
+        <v>0.99005186020203428</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98878682880144364</v>
+        <v>0.98865333733791827</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98752231860305584</v>
+        <v>0.98738882724044941</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.98962096118212095</v>
+        <v>0.98456851651393085</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.97660087624172509</v>
+        <v>0.97154806979578834</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.97014400130438216</v>
+        <v>0.96509113368195321</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.96946269274610219</v>
+        <v>0.95594219390004898</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.96568587989614896</v>
+        <v>0.95271361494043882</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.95143026216878668</v>
+        <v>0.94085270250095543</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.94148865945017957</v>
+        <v>0.93270000373691619</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.93673199731544177</v>
+        <v>0.92889623821040013</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.93567939099199626</v>
+        <v>0.93083089553270604</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.93653229309267005</v>
+        <v>0.93272006816360853</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.93982112524280603</v>
+        <v>0.93220003983732069</v>
       </c>
     </row>
   </sheetData>
